--- a/StructureDefinition-histologic-grade.xlsx
+++ b/StructureDefinition-histologic-grade.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T09:13:58+00:00</t>
+    <t>2022-03-30T09:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histologic-grade.xlsx
+++ b/StructureDefinition-histologic-grade.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:29:59+00:00</t>
+    <t>2022-03-30T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histologic-grade.xlsx
+++ b/StructureDefinition-histologic-grade.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:36:20+00:00</t>
+    <t>2022-03-30T09:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
